--- a/DTT-Assessment-Hour-Log_JDong.xlsx
+++ b/DTT-Assessment-Hour-Log_JDong.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="H7KhSAjCcvoZjSjNRocA+3KH3YcQtIdrMY/ErxrG5/w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="RfrHw73iYKID6Rjhy6ib9sgkMw5HeXc8U/BIQXij1go="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -182,6 +182,53 @@
     <t>Worked on uploading image and its preview; Modify Delete modal to make it work</t>
   </si>
   <si>
+    <t>Incooperation of feadbacks</t>
+  </si>
+  <si>
+    <t>Day 1 - Fix file structure and formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure- Moved the images to src instead of in the public file; 
+Structure- Split up sorting component
+Formatting files intendation; 
+</t>
+  </si>
+  <si>
+    <t>Day 2 - Improve structure, fix one logic issue and UI issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI- Ensure each house item in home view is clickable; 
+Structure- Create HouseList component; 
+Structure- Seperate styles into each component/view; 
+Logic-  Fixed houseNumberAddition not set; 
+Logic- Remove redundant actions and mutations in the houseStore; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 3 -  Create form validation custom rules, fix routing issue, and implement bonus features </t>
+  </si>
+  <si>
+    <t>Logic - Setting up custom rules for form validation under vee-validate lib; 
+Logic-Routing: Houses link remain active by adding nested route; 
+Logic- Search no results view; 
+Bonus- Add Favorite on each house item ( which should be not MadeByMe) and Recommendation Feature in House detail view (three house items which are not current one or MadeByMe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 4 - Work on CSS responsive website </t>
+  </si>
+  <si>
+    <t>UI- Go through CSS code, make changes on font-size, units, relationship between elements</t>
+  </si>
+  <si>
+    <t>Day 5 - Finish UI responsiveness</t>
+  </si>
+  <si>
+    <t> 19/01/2024</t>
+  </si>
+  <si>
+    <t>UI- Add media queries on each screen's css and making adjustments</t>
+  </si>
+  <si>
     <t>Total amount of hours</t>
   </si>
 </sst>
@@ -238,7 +285,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +296,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -264,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border/>
     <border>
       <left style="thin">
@@ -371,6 +424,87 @@
       </right>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -556,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -614,6 +748,42 @@
     <xf borderId="11" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="13" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -624,54 +794,27 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="4" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="4" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="4" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -680,10 +823,37 @@
     <xf borderId="27" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="5" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="29" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="31" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="32" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="35" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="36" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="37" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1655,10 +1825,10 @@
       <c r="D20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1681,39 +1851,51 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
+      <c r="A21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+    </row>
+    <row r="22" ht="42.75" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="33">
+        <v>45306.0</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1736,12 +1918,22 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
+    <row r="23">
+      <c r="A23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="33">
+        <v>45307.0</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1764,11 +1956,19 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
+    <row r="24">
+      <c r="A24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="C24" s="33">
+        <v>45308.0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="6"/>
@@ -1792,12 +1992,22 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16"/>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="C25" s="33">
+        <v>45309.0</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1821,11 +2031,21 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1852,7 +2072,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="6"/>
@@ -1880,7 +2100,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="6"/>
@@ -1905,10 +2125,10 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="6"/>
@@ -1932,13 +2152,13 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1961,17 +2181,12 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="33">
-        <f>SUM(B4:B29)</f>
-        <v>46</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1994,12 +2209,17 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="45">
+        <f>SUM(B4:B30)</f>
+        <v>67</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2022,12 +2242,12 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2050,12 +2270,12 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2078,12 +2298,12 @@
       <c r="Z34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -29125,10 +29345,39 @@
       <c r="Y1000" s="6"/>
       <c r="Z1000" s="6"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="6"/>
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="6"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="6"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+      <c r="J1001" s="6"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="6"/>
+      <c r="R1001" s="6"/>
+      <c r="S1001" s="6"/>
+      <c r="T1001" s="6"/>
+      <c r="U1001" s="6"/>
+      <c r="V1001" s="6"/>
+      <c r="W1001" s="6"/>
+      <c r="X1001" s="6"/>
+      <c r="Y1001" s="6"/>
+      <c r="Z1001" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
